--- a/src/main/ER Diagram.xlsx
+++ b/src/main/ER Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueweng/IdeaProjects/jupiter/src/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF0CF20-3FA5-214A-96D3-6B8F743E8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC8878C-FE48-FC41-988F-FB37977AD741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B53DAF49-2A9D-D142-B6B9-6AEEE951B8BF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>GameController</t>
   </si>
@@ -86,6 +86,45 @@
   </si>
   <si>
     <t>searchGame</t>
+  </si>
+  <si>
+    <t>RegisterDao</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>RegisterService</t>
+  </si>
+  <si>
+    <t>RegisterController</t>
+  </si>
+  <si>
+    <t>verifyLogin</t>
+  </si>
+  <si>
+    <t>LoginDao</t>
+  </si>
+  <si>
+    <t>LoginService</t>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>LogoutController</t>
+  </si>
+  <si>
+    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -101,15 +140,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -186,17 +231,166 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -204,6 +398,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,16 +743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12266658-BD01-A843-85C6-46C8120F3126}">
-  <dimension ref="D8:R27"/>
+  <dimension ref="D1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
@@ -535,123 +760,457 @@
     <col min="18" max="18" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
+    <row r="1" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="28"/>
+      <c r="U6" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D12" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="25"/>
+    </row>
+    <row r="19" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="G20" s="23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D23" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D24" s="17"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
-      <c r="G15" s="1" t="s">
+      <c r="E25" s="3"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D26" s="21"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="18"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="1" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="20"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="P18" s="1"/>
-      <c r="R18" t="s">
+    <row r="30" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="19"/>
+      <c r="U30" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="K22" t="s">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N22" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G36" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="K26" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="N27" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K15:K16"/>
+  <mergeCells count="13">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K27:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/ER Diagram.xlsx
+++ b/src/main/ER Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueweng/IdeaProjects/jupiter/src/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC8878C-FE48-FC41-988F-FB37977AD741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6F60B-20D6-9740-809D-E61DCA7450D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B53DAF49-2A9D-D142-B6B9-6AEEE951B8BF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>GameController</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>logout</t>
+  </si>
+  <si>
+    <t>SearchController</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Client</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -377,6 +386,43 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -389,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -429,6 +475,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,50 +801,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12266658-BD01-A843-85C6-46C8120F3126}">
-  <dimension ref="D1:U41"/>
+  <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="7.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D2" s="24" t="s">
+    <row r="1" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D4" s="21" t="s">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="E3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D4" s="27"/>
+      <c r="E4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -796,55 +868,64 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T6" s="28"/>
-      <c r="U6" s="16" t="s">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="E5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+    <row r="7" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="E7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="18" t="s">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="E8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -852,365 +933,397 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="21" t="s">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="24" t="s">
+      <c r="W9" s="26"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="E12" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D14" s="21" t="s">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
-    </row>
-    <row r="19" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="G20" s="23" t="s">
+    <row r="15" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="H19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="E21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D23" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D24" s="17"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="11"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D26" s="21"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="2"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="18"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="20"/>
-      <c r="H28" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="19"/>
+      <c r="Y28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="E29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="10"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="E30" s="17"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="19"/>
-      <c r="U30" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="12"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="25"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H33" s="10"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H34" s="10"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="8:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K27:K28"/>
+  <mergeCells count="22">
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
